--- a/Code/Results/Cases/Case_8_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91593981548437</v>
+        <v>20.51463534875044</v>
       </c>
       <c r="C2">
-        <v>12.0324935206576</v>
+        <v>12.54342719866715</v>
       </c>
       <c r="D2">
-        <v>5.132334347887117</v>
+        <v>5.335247318833759</v>
       </c>
       <c r="E2">
-        <v>7.722563734009151</v>
+        <v>7.843487215879043</v>
       </c>
       <c r="F2">
-        <v>24.14271170121848</v>
+        <v>23.16686509876825</v>
       </c>
       <c r="G2">
-        <v>2.100596940556308</v>
+        <v>3.819598312385732</v>
       </c>
       <c r="H2">
-        <v>2.257427522627991</v>
+        <v>2.04792603715992</v>
       </c>
       <c r="I2">
-        <v>2.946907086031764</v>
+        <v>2.728105781582276</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.05985287481088</v>
+        <v>15.21319204647661</v>
       </c>
       <c r="L2">
-        <v>5.956976795638702</v>
+        <v>12.77070514743734</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.765802457562685</v>
       </c>
       <c r="N2">
-        <v>7.845093908385923</v>
+        <v>5.969925592198332</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.76181789810144</v>
+        <v>8.017672541801144</v>
       </c>
       <c r="Q2">
-        <v>17.84632974729124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.651549489335</v>
+      </c>
+      <c r="S2">
+        <v>16.99256806441868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.59933831559527</v>
+        <v>19.22838618391847</v>
       </c>
       <c r="C3">
-        <v>11.37252365160312</v>
+        <v>11.83211969417294</v>
       </c>
       <c r="D3">
-        <v>5.016118908683435</v>
+        <v>5.236835641631284</v>
       </c>
       <c r="E3">
-        <v>7.621498499148746</v>
+        <v>7.77415088948026</v>
       </c>
       <c r="F3">
-        <v>23.68013017482395</v>
+        <v>22.71021953245596</v>
       </c>
       <c r="G3">
-        <v>2.104681308407686</v>
+        <v>4.351008129254568</v>
       </c>
       <c r="H3">
-        <v>2.470551312968892</v>
+        <v>2.23388120209007</v>
       </c>
       <c r="I3">
-        <v>3.109575492421184</v>
+        <v>2.86182970243902</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.06828928515007</v>
+        <v>15.22769701270594</v>
       </c>
       <c r="L3">
-        <v>5.916929792376033</v>
+        <v>12.88034748965843</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.694349551283347</v>
       </c>
       <c r="N3">
-        <v>7.584602869597052</v>
+        <v>5.939886179692973</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.84095829052385</v>
+        <v>7.750761992225498</v>
       </c>
       <c r="Q3">
-        <v>17.61174302779598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.69622367984249</v>
+      </c>
+      <c r="S3">
+        <v>16.750107493671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74253036602491</v>
+        <v>18.38936731052643</v>
       </c>
       <c r="C4">
-        <v>10.94899635020044</v>
+        <v>11.37604364307321</v>
       </c>
       <c r="D4">
-        <v>4.944113608889753</v>
+        <v>5.176771402230981</v>
       </c>
       <c r="E4">
-        <v>7.55786895306278</v>
+        <v>7.730689758992845</v>
       </c>
       <c r="F4">
-        <v>23.39972619023994</v>
+        <v>22.42969102097804</v>
       </c>
       <c r="G4">
-        <v>2.107278426857746</v>
+        <v>4.689174164038881</v>
       </c>
       <c r="H4">
-        <v>2.606276576135466</v>
+        <v>2.352412866638093</v>
       </c>
       <c r="I4">
-        <v>3.213900849875927</v>
+        <v>2.948053054710595</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.07809008358028</v>
+        <v>15.23901873430545</v>
       </c>
       <c r="L4">
-        <v>5.891307400072676</v>
+        <v>12.94802796544617</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.669076849950068</v>
       </c>
       <c r="N4">
-        <v>7.420860403545176</v>
+        <v>5.920597975986368</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.89209169884603</v>
+        <v>7.583211892760631</v>
       </c>
       <c r="Q4">
-        <v>17.47258427198057</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.7264003800067</v>
+      </c>
+      <c r="S4">
+        <v>16.60270523708364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37608181099014</v>
+        <v>18.02986216454753</v>
       </c>
       <c r="C5">
-        <v>10.77857655742529</v>
+        <v>11.19226528965377</v>
       </c>
       <c r="D5">
-        <v>4.915158356549584</v>
+        <v>5.152950691331604</v>
       </c>
       <c r="E5">
-        <v>7.530850168596026</v>
+        <v>7.71212004496583</v>
       </c>
       <c r="F5">
-        <v>23.27950493592101</v>
+        <v>22.3083152298409</v>
       </c>
       <c r="G5">
-        <v>2.108366104605323</v>
+        <v>4.830889378117558</v>
       </c>
       <c r="H5">
-        <v>2.663152180659672</v>
+        <v>2.402118241461851</v>
       </c>
       <c r="I5">
-        <v>3.260304837112876</v>
+        <v>2.987540500851062</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.07837418449369</v>
+        <v>15.23938968322543</v>
       </c>
       <c r="L5">
-        <v>5.880247437307347</v>
+        <v>12.97128247114042</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.66063352513661</v>
       </c>
       <c r="N5">
-        <v>7.354522869145351</v>
+        <v>5.912200161787153</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.9142535781604</v>
+        <v>7.515365331810629</v>
       </c>
       <c r="Q5">
-        <v>17.4118638004726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.74017670848363</v>
+      </c>
+      <c r="S5">
+        <v>16.53763039631909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30816196092914</v>
+        <v>17.96302050310084</v>
       </c>
       <c r="C6">
-        <v>10.75821525584628</v>
+        <v>11.16982220715999</v>
       </c>
       <c r="D6">
-        <v>4.910982555140161</v>
+        <v>5.149662767613437</v>
       </c>
       <c r="E6">
-        <v>7.525490285736349</v>
+        <v>7.708245224483114</v>
       </c>
       <c r="F6">
-        <v>23.25107970096886</v>
+        <v>22.27945249315043</v>
       </c>
       <c r="G6">
-        <v>2.10855607627412</v>
+        <v>4.855683102668016</v>
       </c>
       <c r="H6">
-        <v>2.67306976463292</v>
+        <v>2.410798988043446</v>
       </c>
       <c r="I6">
-        <v>3.271630472196326</v>
+        <v>2.998436202707713</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.07257503341425</v>
+        <v>15.23358654984084</v>
       </c>
       <c r="L6">
-        <v>5.877961387099258</v>
+        <v>12.96975763976664</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.656025129183561</v>
       </c>
       <c r="N6">
-        <v>7.345012804155219</v>
+        <v>5.91039891330359</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.91882909644147</v>
+        <v>7.505607330745896</v>
       </c>
       <c r="Q6">
-        <v>17.39542250825922</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.74349243704099</v>
+      </c>
+      <c r="S6">
+        <v>16.52023434009471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.72071045742548</v>
+        <v>18.34658571182604</v>
       </c>
       <c r="C7">
-        <v>10.9687137583299</v>
+        <v>11.36720109132525</v>
       </c>
       <c r="D7">
-        <v>4.945457820261846</v>
+        <v>5.187692660093951</v>
       </c>
       <c r="E7">
-        <v>7.555208038191047</v>
+        <v>7.731070462952613</v>
       </c>
       <c r="F7">
-        <v>23.37496707067493</v>
+        <v>22.36040571183989</v>
       </c>
       <c r="G7">
-        <v>2.107314434615976</v>
+        <v>4.749783786849862</v>
       </c>
       <c r="H7">
-        <v>2.608107021287149</v>
+        <v>2.355694074018767</v>
       </c>
       <c r="I7">
-        <v>3.223933666302401</v>
+        <v>2.961390051560331</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.06195611596368</v>
+        <v>15.20343626276792</v>
       </c>
       <c r="L7">
-        <v>5.88999091826607</v>
+        <v>12.91644713633049</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.647044512946962</v>
       </c>
       <c r="N7">
-        <v>7.424172841310302</v>
+        <v>5.918844887230815</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.89480074040352</v>
+        <v>7.583635929385385</v>
       </c>
       <c r="Q7">
-        <v>17.45426897886559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.73282603808618</v>
+      </c>
+      <c r="S7">
+        <v>16.54733445457137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.4513150629736</v>
+        <v>19.99626676209945</v>
       </c>
       <c r="C8">
-        <v>11.83607107201519</v>
+        <v>12.24016466748743</v>
       </c>
       <c r="D8">
-        <v>5.094652672657688</v>
+        <v>5.334462367645034</v>
       </c>
       <c r="E8">
-        <v>7.685101776444863</v>
+        <v>7.826192458131478</v>
       </c>
       <c r="F8">
-        <v>23.95266850978195</v>
+        <v>22.83710257206451</v>
       </c>
       <c r="G8">
-        <v>2.10201373270123</v>
+        <v>4.322233296158175</v>
       </c>
       <c r="H8">
-        <v>2.331246009468366</v>
+        <v>2.117535969201836</v>
       </c>
       <c r="I8">
-        <v>3.014179953406172</v>
+        <v>2.792616448721364</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.04053552016286</v>
+        <v>15.13295778268528</v>
       </c>
       <c r="L8">
-        <v>5.941901691862606</v>
+        <v>12.73756300674234</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.678719091744721</v>
       </c>
       <c r="N8">
-        <v>7.761458888300029</v>
+        <v>5.956604260022915</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.79207089043616</v>
+        <v>7.922660494721274</v>
       </c>
       <c r="Q8">
-        <v>17.74171490757313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.68320648714377</v>
+      </c>
+      <c r="S8">
+        <v>16.76699962708238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.4862784425994</v>
+        <v>22.94411318631412</v>
       </c>
       <c r="C9">
-        <v>13.35374395915085</v>
+        <v>13.86416401562629</v>
       </c>
       <c r="D9">
-        <v>5.377900043067077</v>
+        <v>5.585792391447733</v>
       </c>
       <c r="E9">
-        <v>7.93120610847597</v>
+        <v>7.999074151567688</v>
       </c>
       <c r="F9">
-        <v>25.14974973032798</v>
+        <v>23.96898495034837</v>
       </c>
       <c r="G9">
-        <v>2.092276268690376</v>
+        <v>3.225526251824377</v>
       </c>
       <c r="H9">
-        <v>1.82440088545233</v>
+        <v>1.676968377823614</v>
       </c>
       <c r="I9">
-        <v>2.622217116159026</v>
+        <v>2.496078205302365</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.06549305104136</v>
+        <v>15.11398860777323</v>
       </c>
       <c r="L9">
-        <v>6.037642914718113</v>
+        <v>12.47628171483449</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.950332495284407</v>
       </c>
       <c r="N9">
-        <v>8.382726770661822</v>
+        <v>6.02792597495762</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.60644322752306</v>
+        <v>8.558585494829799</v>
       </c>
       <c r="Q9">
-        <v>18.37364150227253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.59013871672152</v>
+      </c>
+      <c r="S9">
+        <v>17.37313017732011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.42035552451075</v>
+        <v>24.72403584647855</v>
       </c>
       <c r="C10">
-        <v>14.40383506122109</v>
+        <v>14.84511683408322</v>
       </c>
       <c r="D10">
-        <v>5.551000277472403</v>
+        <v>5.791101937862071</v>
       </c>
       <c r="E10">
-        <v>8.047325597655144</v>
+        <v>8.083471401961289</v>
       </c>
       <c r="F10">
-        <v>25.89658627143748</v>
+        <v>24.42947417052564</v>
       </c>
       <c r="G10">
-        <v>2.085652212423314</v>
+        <v>4.121988579350744</v>
       </c>
       <c r="H10">
-        <v>1.640453817071236</v>
+        <v>1.731354293917852</v>
       </c>
       <c r="I10">
-        <v>2.600283895857062</v>
+        <v>2.702910826606085</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.0393369780584</v>
+        <v>14.94468718629836</v>
       </c>
       <c r="L10">
-        <v>6.090019671089022</v>
+        <v>12.16667448850442</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.09273981384459</v>
       </c>
       <c r="N10">
-        <v>8.73540308969195</v>
+        <v>6.063003437092136</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.49927917269074</v>
+        <v>8.906061926753161</v>
       </c>
       <c r="Q10">
-        <v>18.77103194922523</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.58140478097637</v>
+      </c>
+      <c r="S10">
+        <v>17.54674972493115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.77660663648069</v>
+        <v>24.89406128979454</v>
       </c>
       <c r="C11">
-        <v>15.04165149881287</v>
+        <v>15.17433944664511</v>
       </c>
       <c r="D11">
-        <v>5.369780425640398</v>
+        <v>5.706067840826819</v>
       </c>
       <c r="E11">
-        <v>7.678522042734659</v>
+        <v>7.736785948870948</v>
       </c>
       <c r="F11">
-        <v>25.07026278063869</v>
+        <v>23.15546155064823</v>
       </c>
       <c r="G11">
-        <v>2.083740055543518</v>
+        <v>7.95051037933386</v>
       </c>
       <c r="H11">
-        <v>2.661204115361005</v>
+        <v>2.701360616553378</v>
       </c>
       <c r="I11">
-        <v>2.677501758983771</v>
+        <v>2.756206568377138</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.47178006141109</v>
+        <v>14.21543749675517</v>
       </c>
       <c r="L11">
-        <v>6.042882075302573</v>
+        <v>11.58476448357219</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.608552107577703</v>
       </c>
       <c r="N11">
-        <v>8.195717800907914</v>
+        <v>6.024171434444785</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.59634443783938</v>
+        <v>8.326454073966421</v>
       </c>
       <c r="Q11">
-        <v>18.2336357762592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.79045220323217</v>
+      </c>
+      <c r="S11">
+        <v>16.63375612615107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.69873275000229</v>
+        <v>24.74800221382747</v>
       </c>
       <c r="C12">
-        <v>15.34059240412448</v>
+        <v>15.30589273706936</v>
       </c>
       <c r="D12">
-        <v>5.17901487862856</v>
+        <v>5.55345093581787</v>
       </c>
       <c r="E12">
-        <v>7.44303215364093</v>
+        <v>7.502704676404637</v>
       </c>
       <c r="F12">
-        <v>24.23029172296566</v>
+        <v>22.14677854771851</v>
       </c>
       <c r="G12">
-        <v>2.083401072976149</v>
+        <v>9.833488445218789</v>
       </c>
       <c r="H12">
-        <v>4.044686601935568</v>
+        <v>4.030152823518232</v>
       </c>
       <c r="I12">
-        <v>2.685889744725219</v>
+        <v>2.757423925930254</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.02176885329365</v>
+        <v>13.7376012634367</v>
       </c>
       <c r="L12">
-        <v>6.050048602812718</v>
+        <v>11.24169246662602</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.239715980346942</v>
       </c>
       <c r="N12">
-        <v>7.665940740180413</v>
+        <v>6.04168760636401</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.70934895528323</v>
+        <v>7.773297455675656</v>
       </c>
       <c r="Q12">
-        <v>17.70911655414595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.96153619041206</v>
+      </c>
+      <c r="S12">
+        <v>15.96662330143451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.2602144156075</v>
+        <v>24.3670383549731</v>
       </c>
       <c r="C13">
-        <v>15.43216652825563</v>
+        <v>15.38266122843241</v>
       </c>
       <c r="D13">
-        <v>4.970085390112417</v>
+        <v>5.32115136097834</v>
       </c>
       <c r="E13">
-        <v>7.298770625837002</v>
+        <v>7.352364230209806</v>
       </c>
       <c r="F13">
-        <v>23.28443694721333</v>
+        <v>21.32725451643077</v>
       </c>
       <c r="G13">
-        <v>2.084283895212427</v>
+        <v>9.434509844890414</v>
       </c>
       <c r="H13">
-        <v>5.49863895183188</v>
+        <v>5.480039475422132</v>
       </c>
       <c r="I13">
-        <v>2.647295817146273</v>
+        <v>2.727251862837001</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.61156836818703</v>
+        <v>13.43087459547189</v>
       </c>
       <c r="L13">
-        <v>6.095266605817661</v>
+        <v>11.04661850867069</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.955861692350339</v>
       </c>
       <c r="N13">
-        <v>7.111871088570681</v>
+        <v>6.100243682911983</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.84094283093392</v>
+        <v>7.211941181757425</v>
       </c>
       <c r="Q13">
-        <v>17.13132300058594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.08911362813247</v>
+      </c>
+      <c r="S13">
+        <v>15.49235691303534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.7795394345968</v>
+        <v>23.98264377794748</v>
       </c>
       <c r="C14">
-        <v>15.40913680953408</v>
+        <v>15.41625534653355</v>
       </c>
       <c r="D14">
-        <v>4.816336563627146</v>
+        <v>5.127122426537426</v>
       </c>
       <c r="E14">
-        <v>7.255674594172909</v>
+        <v>7.30953502610426</v>
       </c>
       <c r="F14">
-        <v>22.56553180107677</v>
+        <v>20.82114217830806</v>
       </c>
       <c r="G14">
-        <v>2.085457104620324</v>
+        <v>8.157722468643898</v>
       </c>
       <c r="H14">
-        <v>6.521685198358415</v>
+        <v>6.502206686256211</v>
       </c>
       <c r="I14">
-        <v>2.600468014931581</v>
+        <v>2.693464306550285</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.34215227065982</v>
+        <v>13.2831121187729</v>
       </c>
       <c r="L14">
-        <v>6.149863393372505</v>
+        <v>10.96485032448077</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.791455819914967</v>
       </c>
       <c r="N14">
-        <v>6.715618894283266</v>
+        <v>6.16524589781007</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.94234968538975</v>
+        <v>6.816952286013092</v>
       </c>
       <c r="Q14">
-        <v>16.69737808126514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.15759508780855</v>
+      </c>
+      <c r="S14">
+        <v>15.23379813484352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.57854153845129</v>
+        <v>23.82919422798093</v>
       </c>
       <c r="C15">
-        <v>15.36605789601558</v>
+        <v>15.41604042379492</v>
       </c>
       <c r="D15">
-        <v>4.775404965563053</v>
+        <v>5.067025204582295</v>
       </c>
       <c r="E15">
-        <v>7.250825011749424</v>
+        <v>7.308192637109412</v>
       </c>
       <c r="F15">
-        <v>22.36224039627744</v>
+        <v>20.72183875791148</v>
       </c>
       <c r="G15">
-        <v>2.086022604036576</v>
+        <v>7.426808215945448</v>
       </c>
       <c r="H15">
-        <v>6.759343317726387</v>
+        <v>6.738661977722436</v>
       </c>
       <c r="I15">
-        <v>2.580521045294314</v>
+        <v>2.680384355042902</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.28078359218364</v>
+        <v>13.27170015613985</v>
       </c>
       <c r="L15">
-        <v>6.163654527806555</v>
+        <v>10.9654715129313</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.762563362632552</v>
       </c>
       <c r="N15">
-        <v>6.614333810236328</v>
+        <v>6.182458061557695</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.9704728786821</v>
+        <v>6.718619674704842</v>
       </c>
       <c r="Q15">
-        <v>16.57607004637269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.16504781858923</v>
+      </c>
+      <c r="S15">
+        <v>15.19831803164452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.83406912441876</v>
+        <v>23.28531742275811</v>
       </c>
       <c r="C16">
-        <v>14.9362262920416</v>
+        <v>15.22625331927426</v>
       </c>
       <c r="D16">
-        <v>4.740520653300869</v>
+        <v>4.956311737087493</v>
       </c>
       <c r="E16">
-        <v>7.224502167448602</v>
+        <v>7.308712120383483</v>
       </c>
       <c r="F16">
-        <v>22.19523023715925</v>
+        <v>20.98476831406998</v>
       </c>
       <c r="G16">
-        <v>2.088678213383414</v>
+        <v>4.146388410229903</v>
       </c>
       <c r="H16">
-        <v>6.557570955022331</v>
+        <v>6.526236484382814</v>
       </c>
       <c r="I16">
-        <v>2.533322147567625</v>
+        <v>2.611035945320249</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.36848833857499</v>
+        <v>13.52733554391168</v>
       </c>
       <c r="L16">
-        <v>6.127347701428346</v>
+        <v>11.18262475275786</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.885261228090023</v>
       </c>
       <c r="N16">
-        <v>6.560860842922613</v>
+        <v>6.154834749649137</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.97824056152379</v>
+        <v>6.687600119582489</v>
       </c>
       <c r="Q16">
-        <v>16.49971545241164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.06805485987067</v>
+      </c>
+      <c r="S16">
+        <v>15.47665613583352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.51926212143142</v>
+        <v>23.04763095779586</v>
       </c>
       <c r="C17">
-        <v>14.6129614893317</v>
+        <v>15.02134319092255</v>
       </c>
       <c r="D17">
-        <v>4.796220687937161</v>
+        <v>4.984255585491984</v>
       </c>
       <c r="E17">
-        <v>7.217224229343469</v>
+        <v>7.312233225547255</v>
       </c>
       <c r="F17">
-        <v>22.45625994654874</v>
+        <v>21.40913889843567</v>
       </c>
       <c r="G17">
-        <v>2.090099343706697</v>
+        <v>3.068571034771169</v>
       </c>
       <c r="H17">
-        <v>5.828707655314842</v>
+        <v>5.787180104264905</v>
       </c>
       <c r="I17">
-        <v>2.589782565608419</v>
+        <v>2.574724136389018</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.57670895664359</v>
+        <v>13.78585180965392</v>
       </c>
       <c r="L17">
-        <v>6.066246546322141</v>
+        <v>11.39232921425387</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.045712667305565</v>
       </c>
       <c r="N17">
-        <v>6.732343829234777</v>
+        <v>6.094250913797425</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.93214112614593</v>
+        <v>6.873308842603122</v>
       </c>
       <c r="Q17">
-        <v>16.67528661026849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.97398413227668</v>
+      </c>
+      <c r="S17">
+        <v>15.78669392215919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.5605964304843</v>
+        <v>23.10231938551673</v>
       </c>
       <c r="C18">
-        <v>14.3345026123658</v>
+        <v>14.81736148044442</v>
       </c>
       <c r="D18">
-        <v>4.937477424813334</v>
+        <v>5.115470029181663</v>
       </c>
       <c r="E18">
-        <v>7.282922791768723</v>
+        <v>7.372958162337772</v>
       </c>
       <c r="F18">
-        <v>23.12752652802075</v>
+        <v>22.11950699499042</v>
       </c>
       <c r="G18">
-        <v>2.09055143453228</v>
+        <v>2.759093724465087</v>
       </c>
       <c r="H18">
-        <v>4.587753236239775</v>
+        <v>4.532393984036917</v>
       </c>
       <c r="I18">
-        <v>2.595942714138247</v>
+        <v>2.559932934998328</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.92645504775258</v>
+        <v>14.12624220790974</v>
       </c>
       <c r="L18">
-        <v>6.003217210414311</v>
+        <v>11.65396218859516</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.294731582954659</v>
       </c>
       <c r="N18">
-        <v>7.125303377468073</v>
+        <v>6.024613697349135</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.83598436604828</v>
+        <v>7.279705544253341</v>
       </c>
       <c r="Q18">
-        <v>17.09661144905756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.85599572607593</v>
+      </c>
+      <c r="S18">
+        <v>16.2414143291773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.85735077184641</v>
+        <v>23.37546319939</v>
       </c>
       <c r="C19">
-        <v>14.15214710371312</v>
+        <v>14.6894844544629</v>
       </c>
       <c r="D19">
-        <v>5.142773236710425</v>
+        <v>5.318867909356011</v>
       </c>
       <c r="E19">
-        <v>7.481367528177622</v>
+        <v>7.553667835482986</v>
       </c>
       <c r="F19">
-        <v>24.03599559741405</v>
+        <v>22.99881248837323</v>
       </c>
       <c r="G19">
-        <v>2.090166950222707</v>
+        <v>2.63730557677432</v>
       </c>
       <c r="H19">
-        <v>3.121859914251617</v>
+        <v>3.043836108266175</v>
       </c>
       <c r="I19">
-        <v>2.580598601598424</v>
+        <v>2.57943698454147</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.34593747536729</v>
+        <v>14.50300464127654</v>
       </c>
       <c r="L19">
-        <v>5.983044762430025</v>
+        <v>11.93389707397153</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.59186424382877</v>
       </c>
       <c r="N19">
-        <v>7.68479485179759</v>
+        <v>5.991686340511669</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.72149873242978</v>
+        <v>7.852687415910729</v>
       </c>
       <c r="Q19">
-        <v>17.65226004369105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.73501125421437</v>
+      </c>
+      <c r="S19">
+        <v>16.77589285338319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.88443096044809</v>
+        <v>24.28625448424817</v>
       </c>
       <c r="C20">
-        <v>14.19066052181444</v>
+        <v>14.73449622381941</v>
       </c>
       <c r="D20">
-        <v>5.50942409444903</v>
+        <v>5.709419226810835</v>
       </c>
       <c r="E20">
-        <v>8.008370257282206</v>
+        <v>8.043575482225252</v>
       </c>
       <c r="F20">
-        <v>25.62861936986854</v>
+        <v>24.37931615280013</v>
       </c>
       <c r="G20">
-        <v>2.087427440456024</v>
+        <v>2.892497734030069</v>
       </c>
       <c r="H20">
-        <v>1.591017333763492</v>
+        <v>1.65838329698141</v>
       </c>
       <c r="I20">
-        <v>2.546126311771314</v>
+        <v>2.669661996664709</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.99258509250043</v>
+        <v>15.004934267068</v>
       </c>
       <c r="L20">
-        <v>6.07284018470694</v>
+        <v>12.2584114816194</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.06520754163271</v>
       </c>
       <c r="N20">
-        <v>8.651789427975483</v>
+        <v>6.052465480096565</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.53686117203292</v>
+        <v>8.832627804448959</v>
       </c>
       <c r="Q20">
-        <v>18.61099311670355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.57737866688871</v>
+      </c>
+      <c r="S20">
+        <v>17.56651627865224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.3873642947243</v>
+        <v>25.37001598692246</v>
       </c>
       <c r="C21">
-        <v>14.92488580235152</v>
+        <v>15.00063366151789</v>
       </c>
       <c r="D21">
-        <v>5.686309353993413</v>
+        <v>6.082726802200872</v>
       </c>
       <c r="E21">
-        <v>8.183428384546463</v>
+        <v>8.248095750703706</v>
       </c>
       <c r="F21">
-        <v>26.42165378905489</v>
+        <v>24.2006695965993</v>
       </c>
       <c r="G21">
-        <v>2.082260669693381</v>
+        <v>9.577150743596684</v>
       </c>
       <c r="H21">
-        <v>1.809966924975247</v>
+        <v>1.85635703337752</v>
       </c>
       <c r="I21">
-        <v>2.745655592774219</v>
+        <v>2.807946882442571</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.08833901380024</v>
+        <v>14.62836478690787</v>
       </c>
       <c r="L21">
-        <v>6.132290138974366</v>
+        <v>11.85858330918532</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.978148514132293</v>
       </c>
       <c r="N21">
-        <v>9.039006284546582</v>
+        <v>6.087567712664192</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.43554472083012</v>
+        <v>9.172458880987426</v>
       </c>
       <c r="Q21">
-        <v>19.0585948226687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.64792839984982</v>
+      </c>
+      <c r="S21">
+        <v>17.20478239780617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.31495437516579</v>
+        <v>26.01569742050434</v>
       </c>
       <c r="C22">
-        <v>15.37609974905848</v>
+        <v>15.13050728870685</v>
       </c>
       <c r="D22">
-        <v>5.782991145669578</v>
+        <v>6.32445248114876</v>
       </c>
       <c r="E22">
-        <v>8.270351687146977</v>
+        <v>8.366621934806433</v>
       </c>
       <c r="F22">
-        <v>26.89867967957935</v>
+        <v>23.99676660380394</v>
       </c>
       <c r="G22">
-        <v>2.078989902021555</v>
+        <v>14.59429359600362</v>
       </c>
       <c r="H22">
-        <v>1.974973825298877</v>
+        <v>1.981517191199359</v>
       </c>
       <c r="I22">
-        <v>2.866693024293064</v>
+        <v>2.889233777492795</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.14484286732286</v>
+        <v>14.35089534485224</v>
       </c>
       <c r="L22">
-        <v>6.165081478220883</v>
+        <v>11.58894075542209</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.894738531374479</v>
       </c>
       <c r="N22">
-        <v>9.24033191645608</v>
+        <v>6.106704525748603</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.37487102897559</v>
+        <v>9.339448456262286</v>
       </c>
       <c r="Q22">
-        <v>19.33372809499211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.71602580869764</v>
+      </c>
+      <c r="S22">
+        <v>16.90895141977718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.8384054134366</v>
+        <v>25.72941248059057</v>
       </c>
       <c r="C23">
-        <v>15.11704290760809</v>
+        <v>15.09851616694996</v>
       </c>
       <c r="D23">
-        <v>5.729711517555579</v>
+        <v>6.168896409358682</v>
       </c>
       <c r="E23">
-        <v>8.226445985439572</v>
+        <v>8.296365095764866</v>
       </c>
       <c r="F23">
-        <v>26.66808448020433</v>
+        <v>24.23122087780498</v>
       </c>
       <c r="G23">
-        <v>2.080709426961579</v>
+        <v>11.09829810286055</v>
       </c>
       <c r="H23">
-        <v>1.888199579086277</v>
+        <v>1.918364739948741</v>
       </c>
       <c r="I23">
-        <v>2.79753908867248</v>
+        <v>2.842124619748805</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.13268658407577</v>
+        <v>14.56313001391134</v>
       </c>
       <c r="L23">
-        <v>6.148805397056615</v>
+        <v>11.77392492116668</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.994927227141977</v>
       </c>
       <c r="N23">
-        <v>9.129206547319775</v>
+        <v>6.098233232903355</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.40308195107153</v>
+        <v>9.252921369309583</v>
       </c>
       <c r="Q23">
-        <v>19.20527056698944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.65938668070119</v>
+      </c>
+      <c r="S23">
+        <v>17.17125207664213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.92555529119737</v>
+        <v>24.32771913434219</v>
       </c>
       <c r="C24">
-        <v>14.13198179981585</v>
+        <v>14.68333106142763</v>
       </c>
       <c r="D24">
-        <v>5.527994217673304</v>
+        <v>5.726547959984327</v>
       </c>
       <c r="E24">
-        <v>8.053793759183426</v>
+        <v>8.086501226693256</v>
       </c>
       <c r="F24">
-        <v>25.75804636770169</v>
+        <v>24.5115509289141</v>
       </c>
       <c r="G24">
-        <v>2.087383327534057</v>
+        <v>2.841845164209135</v>
       </c>
       <c r="H24">
-        <v>1.570397653153931</v>
+        <v>1.66121815157824</v>
       </c>
       <c r="I24">
-        <v>2.538523830498949</v>
+        <v>2.660125310973885</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.06892000599677</v>
+        <v>15.07809016860475</v>
       </c>
       <c r="L24">
-        <v>6.083878843924521</v>
+        <v>12.31333795954088</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.1216578452171</v>
       </c>
       <c r="N24">
-        <v>8.704524946970917</v>
+        <v>6.061680402432695</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.52159235599842</v>
+        <v>8.886988952963211</v>
       </c>
       <c r="Q24">
-        <v>18.69705489876793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.55879786070754</v>
+      </c>
+      <c r="S24">
+        <v>17.65516577683947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.68103840878396</v>
+        <v>22.18783845943189</v>
       </c>
       <c r="C25">
-        <v>12.99344087270785</v>
+        <v>13.51280088457605</v>
       </c>
       <c r="D25">
-        <v>5.305056715668576</v>
+        <v>5.507979382823687</v>
       </c>
       <c r="E25">
-        <v>7.862124282457769</v>
+        <v>7.945600260749172</v>
       </c>
       <c r="F25">
-        <v>24.78468385483643</v>
+        <v>23.68298006837955</v>
       </c>
       <c r="G25">
-        <v>2.094872827175879</v>
+        <v>3.287223624725983</v>
       </c>
       <c r="H25">
-        <v>1.959267712546403</v>
+        <v>1.792013518052304</v>
       </c>
       <c r="I25">
-        <v>2.742445911836753</v>
+        <v>2.573529301731965</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.02562321636356</v>
+        <v>15.11579378429991</v>
       </c>
       <c r="L25">
-        <v>6.01066464409284</v>
+        <v>12.54604855364772</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.860761873417427</v>
       </c>
       <c r="N25">
-        <v>8.2254894892869</v>
+        <v>6.008349557907273</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.65967739956239</v>
+        <v>8.401097112130856</v>
       </c>
       <c r="Q25">
-        <v>18.1686203130178</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.61290824948497</v>
+      </c>
+      <c r="S25">
+        <v>17.22705035574625</v>
       </c>
     </row>
   </sheetData>
